--- a/AmazonCrawler/data/reviewresult.xlsx
+++ b/AmazonCrawler/data/reviewresult.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27210" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27394" uniqueCount="457">
   <si>
     <t>store01</t>
   </si>
@@ -17026,6 +17026,213 @@
   </si>
   <si>
     <t>Order shipped 2 sizes larger than I purchased. Cover up is only long enough to be a shirt. I'm 5'8" and it doesn't cover anything that a beach cover up should.</t>
+  </si>
+  <si>
+    <t>B0713QLG97</t>
+  </si>
+  <si>
+    <t>Fällt größer aus</t>
+  </si>
+  <si>
+    <t>2,0 von 5 Sternen</t>
+  </si>
+  <si>
+    <t>Größ 40</t>
+  </si>
+  <si>
+    <t>Blau</t>
+  </si>
+  <si>
+    <t>Fällt leider größer aus als erwartet. Ausserdem finde ich die Volants zu groß, es macht dann insgesamt eine komische Brust. Schade!</t>
+  </si>
+  <si>
+    <t>B06ZYS92SS</t>
+  </si>
+  <si>
+    <t>Größen passen nicht zueinander...</t>
+  </si>
+  <si>
+    <t>3,0 von 5 Sternen</t>
+  </si>
+  <si>
+    <t>Größ EU 46-48</t>
+  </si>
+  <si>
+    <t>Schönes Set an sich. Leider passt die Größe der Hose nicht zur Größe des Oberteils. Da wäre oben alles raus gefallen... ;) Ging daher zurück...</t>
+  </si>
+  <si>
+    <t>Sehr gute Abwicklung, leider in der Größenangabe etwas ungenau</t>
+  </si>
+  <si>
+    <t>Größ EU 42-44</t>
+  </si>
+  <si>
+    <t>Der Kontakt zum Händler und die Abwicklung des Kaufs waren absolut in Ordnung. Leider ist das Bikiniunterteil für die angegebene Größe ziemlich eng. Ich empfehle daher darauf zu achten, das eine Nr größer bestellt werden sollte.</t>
+  </si>
+  <si>
+    <t>Schuss in den Ofen</t>
+  </si>
+  <si>
+    <t>1,0 von 5 Sternen</t>
+  </si>
+  <si>
+    <t>Größ EU 50-52</t>
+  </si>
+  <si>
+    <t>Das Unterteil ist definitiv kein Highwaist - total die verar*che rate vom Kauf ab - Oberteil sitzt auch überhaupt nicht. Außerdem habe ich einfach schon mal zur Sicherheit ne Nummer größer bestellt und dann passt es trotzdem oben und unten nicht</t>
+  </si>
+  <si>
+    <t>Sofort Retour</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Leider sehr schlechte Qualität und unschöne Passform. Höschen ist groß geschnitten, aber schneidet trotzdem an den Beinen/ Po ein (ich trage sonst 36, also bin verhältnismäßig schlank) Oberteil zu weit geschnitten und der Volant sieht sehr billig verarbeitet aus und fällt nicht schön. Ging bei mir direkt wieder zurück.</t>
+  </si>
+  <si>
+    <t>Verarsche!</t>
+  </si>
+  <si>
+    <t>Dieses Produkt entspricht garnicht der Abbildung. Das oberteil schlabrig und unpassend und das unterteil eng und garnicht high waist. Noch dazu schaut der Bikini nicht aus wie am Foto. Der bikini billigst verarbeitet und das unterteil normal gestreift. Wenn ich könnte würde ich garkeinen stern vergeben. Ich rate vom kauf ab!!!!!!</t>
+  </si>
+  <si>
+    <t>Na ja</t>
+  </si>
+  <si>
+    <t>Sehr schöner Bikini, zumindest auf dem Foto. Das Hösschen ist nicht Hochgeschnitten wie auf dem Bild was sehr schade ist daher Punkt Abzüge.</t>
+  </si>
+  <si>
+    <t>Schöne Farbe aber ging leider zurück</t>
+  </si>
+  <si>
+    <t>Größ EU 36-38</t>
+  </si>
+  <si>
+    <t>Ich fand die Hose leider nicht sehr gelungen , tolle Farben , aber Nähte viel zu fest und unflexibel, man darf nicht ziehen sonst reist die Naht leider.</t>
+  </si>
+  <si>
+    <t>Das Produkt kam wie erwartet pünktlich geliefert. Die Hose ist toll, leider ziehen sich die Nähte etwas auseinander. Das Oberteil sieht angezogen nicht so toll aus, es macht aus einer großen Oberweite, eine kleine und sitzt nicht gut.</t>
+  </si>
+  <si>
+    <t>Nix für mich</t>
+  </si>
+  <si>
+    <t>Bin nicht begeistert. Die Hose ist ok aber das Oberteil ist schlecht verarbeitet und die Polsterung komisch. Fühlte mich breiter in dem Bikini.</t>
+  </si>
+  <si>
+    <t>An sich nicht schlecht, aber nix für mich</t>
+  </si>
+  <si>
+    <t>An sich saß der Bikini nicht schlecht, der Volant am Oberteil hat mir aber nicht gefallen, weil er meine Oberweite nicht viel größer erscheinen lies. Für Mädels mit eher wenig Oberweite ist er aber sicher super.</t>
+  </si>
+  <si>
+    <t>B01I46KPO2</t>
+  </si>
+  <si>
+    <t>Nix für kleine Frauen mit viel Oberweite</t>
+  </si>
+  <si>
+    <t>Größ EU 50-52(Herstellergröße 3XL)</t>
+  </si>
+  <si>
+    <t>Schwarz mit Kirsche</t>
+  </si>
+  <si>
+    <t>Schicker Badeanzug aber leider viel zu klein im Körbchen und viel zu lang bei 1,60cm Körpergröße. Außerdem ist das Muster sobald es nur ein wenig gedehnt wird nicht mehr schön. Gute Verarbeitung</t>
+  </si>
+  <si>
+    <t>Schade</t>
+  </si>
+  <si>
+    <t>Größ EU 42-44(Herstellergröße L)</t>
+  </si>
+  <si>
+    <t>Grundsätzlich ist der Badeanzug gut verarbeitet. Leider sitzt er an mir überhaupt nicht gut und das Material ist am Bauch nicht fest genug. Schade.</t>
+  </si>
+  <si>
+    <t>Größenangabe nicht gut</t>
+  </si>
+  <si>
+    <t>Schwarz und Rot</t>
+  </si>
+  <si>
+    <t>Die Verarbeitung des Badeanzuges war eigentlich sehr gut und das Design sehr ansprechend, leider entsprch die angegebene Konfektionsgröße nicht der Realität. Das Badekleid fiel viel zu klein aus und ging deshalb leider wieder zurück. Die Rückabwicklung erfolgte problemlos.</t>
+  </si>
+  <si>
+    <t>Komische Passform</t>
+  </si>
+  <si>
+    <t>Größ EU 46-48(Herstellergröße XL)</t>
+  </si>
+  <si>
+    <t>Dieser Badeanzug ist total komisch geschnitten. Viel zu lang am oberkörper, die Brustpartie sitzt viel zu weit oben, für grosse Brüste nicht geeignet. Ich habe ihn laut der Grössenangabe bestellt, passt überhaupt nirgends.</t>
+  </si>
+  <si>
+    <t>Zu klein, zur Auswahl bestellt!</t>
+  </si>
+  <si>
+    <t>Marineblau</t>
+  </si>
+  <si>
+    <t>Leider sitzt der Badeanzug nicht richtig. Ich habe ihn eine Nummer zu klein bestellt. Habe mir schon die größere Größe bestellt.</t>
+  </si>
+  <si>
+    <t>Paßform</t>
+  </si>
+  <si>
+    <t>Das Badekleid ist sehr schön, aber die innere Länge ist zu groß für mich (zu lang). Das paßt Frauen, die 180cm großsind</t>
+  </si>
+  <si>
+    <t>Leider Defekt</t>
+  </si>
+  <si>
+    <t>Passform kann ich nicht beurteilen, da ich das Teil zurück geschickt habe weil die Nacht nicht durchgängig genäht war. Sah aber sehr klein aus. Umtausch erfolgte problemlos.</t>
+  </si>
+  <si>
+    <t>schlecht verarbeitet</t>
+  </si>
+  <si>
+    <t>Größ EU 48-50(Herstellergröße 2XL)</t>
+  </si>
+  <si>
+    <t>für Frauen mit viel Busen nicht geeignet, da Wattierung nicht herausnehmbar und dann alles sehr knapp ; schlecht verarbeitet; Seitenstäbchen auf einer Seite nicht vernäht, Nähte unsauber,</t>
+  </si>
+  <si>
+    <t>Nicht nachvollziehbare Bwewertungen</t>
+  </si>
+  <si>
+    <t>Das Badekleid erweckt den Eindruck eines tieferen Ausschnitts. Das was ich bekam war völlig verschnitten, die Träger zu kurz, dadurch passt die Brust nicht bzw. sitzt sie fast am Hals. Die Einlagen grauenvoll, kann man rausnehmen, löste das Problem aber nicht. Tief enttäuscht gleich wieder eingepackt und geht zurück.</t>
+  </si>
+  <si>
+    <t>Nie wieder,bin so enttäuscht</t>
+  </si>
+  <si>
+    <t>Größ EU 40-42(Herstellergröße M)</t>
+  </si>
+  <si>
+    <t>Am lieben null punkte. Hab das Badekleid vor einer Woche schnell über mein freund sein Account hier bestellt und hab mich so gefreut das es für den Urlaub passend da ist. Nachdem ich es bekommen hab hab ich gleich an der Brust gemekt das da die naht nicht richtig vernäht wurde. Musste mit an dienstag (am Freitag erst bekommen) ein neuen kaufen da der hier nach 2 mal baden im pool blau lila ist (eigentlich nur blau).Ich bin eigentlich nicht so aber sehr selbst wie unmöglich er jetzt aussieht.</t>
+  </si>
+  <si>
+    <t>B06W2GX154</t>
+  </si>
+  <si>
+    <t>Einfach laprig....</t>
+  </si>
+  <si>
+    <t>Größ 42-44</t>
+  </si>
+  <si>
+    <t>Grün</t>
+  </si>
+  <si>
+    <t>Der Tankini ist von der Optik wirklich super...nur schon im trockenen Zustand ist der Stoff sehr weich und verzieht sich...also möchte ich nicht wissen, wie es dann im Wasser sein würde...schade..:(</t>
+  </si>
+  <si>
+    <t>Schöner tankini</t>
+  </si>
+  <si>
+    <t>Sehr schöner tankini, netter verkäufer,passt super,größe entspricht sehr gut.habe noch einen 2.bestellt.ideal für am Strand oder im urlaub,angenehm zu tragen.</t>
   </si>
 </sst>
 </file>
@@ -17971,7 +18178,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I2758"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2535" sqref="K2535"/>
@@ -17981,7 +18188,580 @@
   <cols>
     <col min="3" max="3" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5687</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5687</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4293</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5694</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5703</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5704</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5707</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5704</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5099</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5703</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4838</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5713</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5704</v>
+      </c>
+      <c r="G14" t="s">
+        <v>790</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5713</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5716</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5713</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5317</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5707</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5687</v>
+      </c>
+      <c r="G17" t="s">
+        <v>811</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5723</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5716</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5707</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5687</v>
+      </c>
+      <c r="G19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5728</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5716</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5732</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5733</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5732</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5317</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+  </sheetData>
   <autoFilter ref="A1:H2527">
     <extLst/>
   </autoFilter>

--- a/AmazonCrawler/data/reviewresult.xlsx
+++ b/AmazonCrawler/data/reviewresult.xlsx
@@ -18188,580 +18188,7 @@
   <cols>
     <col min="3" max="3" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5675</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5677</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5679</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5680</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3343</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5682</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5684</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5685</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5686</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5680</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5687</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5688</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5689</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5680</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5691</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5687</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4293</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5692</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5693</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5694</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5695</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5677</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5697</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5670</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5680</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5698</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5699</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5684</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5702</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5703</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5704</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5705</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5706</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5707</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5704</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5099</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5709</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5703</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5710</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4838</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5711</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5712</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5713</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5704</v>
-      </c>
-      <c r="G14" t="s">
-        <v>790</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5714</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5715</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5713</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5716</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5718</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5713</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5710</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5317</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5719</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5720</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5676</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5707</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5687</v>
-      </c>
-      <c r="G17" t="s">
-        <v>811</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5721</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5722</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5670</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5723</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5716</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3314</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5725</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5707</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5687</v>
-      </c>
-      <c r="G19" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5701</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5727</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5728</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5716</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5729</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5730</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5731</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5732</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5733</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5734</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5730</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5735</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5683</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5732</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5317</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5736</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <autoFilter ref="A1:H2527">
     <extLst/>
   </autoFilter>
